--- a/Dataset/DatasetDaTaggare.xlsx
+++ b/Dataset/DatasetDaTaggare.xlsx
@@ -1076,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1134,13 +1134,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1148,16 +1141,29 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,6 +1171,26 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1204,26 +1230,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1252,7 +1258,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabella4" displayName="Tabella4" ref="B7:C12" totalsRowShown="0">
   <autoFilter ref="B7:C12"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Testo" dataDxfId="0"/>
+    <tableColumn id="1" name="Testo" dataDxfId="2"/>
     <tableColumn id="2" name="Valore numerico"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1525,13 +1531,13 @@
   <dimension ref="A1:U279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="25" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
@@ -1539,7 +1545,7 @@
     <col min="7" max="7" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.140625" style="4" bestFit="1" customWidth="1"/>
@@ -1598,7 +1604,7 @@
       <c r="I2" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="21" t="s">
         <v>287</v>
       </c>
       <c r="K2" s="6"/>
@@ -1617,21 +1623,21 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1639,13 +1645,13 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="30"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1653,13 +1659,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="30"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1667,13 +1673,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="30"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1681,13 +1687,13 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="30"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1695,13 +1701,13 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="30"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1709,13 +1715,13 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="30"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1723,13 +1729,13 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="30"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -1737,13 +1743,13 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="30"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1751,13 +1757,13 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="30"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1765,13 +1771,13 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1779,13 +1785,13 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1793,13 +1799,13 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1807,13 +1813,13 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1821,13 +1827,13 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="30"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1835,13 +1841,13 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1849,13 +1855,13 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="30"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1863,13 +1869,13 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1877,13 +1883,13 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1891,13 +1897,13 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="30"/>
+      <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1905,13 +1911,13 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="30"/>
+      <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:21" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1919,7 +1925,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="30"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="10"/>
@@ -1936,7 +1942,7 @@
       <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1944,7 +1950,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="30"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="10"/>
@@ -1961,7 +1967,7 @@
       <c r="A26" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1969,7 +1975,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="30"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="10"/>
@@ -1986,7 +1992,7 @@
       <c r="A27" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1994,7 +2000,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="30"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="10"/>
@@ -2011,7 +2017,7 @@
       <c r="A28" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2019,7 +2025,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="30"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="10"/>
@@ -2036,7 +2042,7 @@
       <c r="A29" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2044,7 +2050,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="30"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="10"/>
@@ -2061,7 +2067,7 @@
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2069,13 +2075,13 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="30"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2083,13 +2089,13 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="30"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2097,13 +2103,13 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="30"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2111,13 +2117,13 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="30"/>
+      <c r="J33" s="24"/>
     </row>
     <row r="34" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2125,13 +2131,13 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="30"/>
+      <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2139,7 +2145,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="30"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="10"/>
@@ -2156,7 +2162,7 @@
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2164,13 +2170,13 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="30"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2178,13 +2184,13 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="30"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:21" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2192,7 +2198,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="30"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="10"/>
@@ -2209,7 +2215,7 @@
       <c r="A39" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2217,13 +2223,13 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="30"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2231,13 +2237,13 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="30"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:21" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2245,7 +2251,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="30"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="10"/>
@@ -2262,7 +2268,7 @@
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2270,13 +2276,13 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="30"/>
+      <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2284,13 +2290,13 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="30"/>
+      <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="21"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2298,13 +2304,13 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="30"/>
+      <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="21"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2312,13 +2318,13 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="30"/>
+      <c r="J45" s="24"/>
     </row>
     <row r="46" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="21"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2326,7 +2332,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="30"/>
+      <c r="J46" s="24"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="10"/>
@@ -2343,7 +2349,7 @@
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2351,13 +2357,13 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="30"/>
+      <c r="J47" s="24"/>
     </row>
     <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="21"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2365,13 +2371,13 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="30"/>
+      <c r="J48" s="24"/>
     </row>
     <row r="49" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="21"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2379,13 +2385,13 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="30"/>
+      <c r="J49" s="24"/>
     </row>
     <row r="50" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="21"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2393,7 +2399,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="30"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="10"/>
@@ -2410,7 +2416,7 @@
       <c r="A51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="21"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2418,13 +2424,13 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="30"/>
+      <c r="J51" s="24"/>
     </row>
     <row r="52" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="21"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2432,13 +2438,13 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="30"/>
+      <c r="J52" s="24"/>
     </row>
     <row r="53" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2446,13 +2452,13 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="30"/>
+      <c r="J53" s="24"/>
     </row>
     <row r="54" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2460,13 +2466,13 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="30"/>
+      <c r="J54" s="24"/>
     </row>
     <row r="55" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="21"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2474,13 +2480,13 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="30"/>
+      <c r="J55" s="24"/>
     </row>
     <row r="56" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2488,7 +2494,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="30"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="10"/>
@@ -2505,7 +2511,7 @@
       <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2513,13 +2519,13 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="30"/>
+      <c r="J57" s="24"/>
     </row>
     <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="21"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2527,13 +2533,13 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="30"/>
+      <c r="J58" s="24"/>
     </row>
     <row r="59" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2541,13 +2547,13 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="30"/>
+      <c r="J59" s="24"/>
     </row>
     <row r="60" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2555,13 +2561,13 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="30"/>
+      <c r="J60" s="24"/>
     </row>
     <row r="61" spans="1:21" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2569,7 +2575,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="30"/>
+      <c r="J61" s="24"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="10"/>
@@ -2586,7 +2592,7 @@
       <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2594,13 +2600,13 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="30"/>
+      <c r="J62" s="24"/>
     </row>
     <row r="63" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="21"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2608,13 +2614,13 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="30"/>
+      <c r="J63" s="24"/>
     </row>
     <row r="64" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="21"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2622,13 +2628,13 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="30"/>
+      <c r="J64" s="24"/>
     </row>
     <row r="65" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="21"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2636,13 +2642,13 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="30"/>
+      <c r="J65" s="24"/>
     </row>
     <row r="66" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B66" s="21"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -2650,7 +2656,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="30"/>
+      <c r="J66" s="24"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="10"/>
@@ -2667,7 +2673,7 @@
       <c r="A67" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B67" s="21"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2675,7 +2681,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="30"/>
+      <c r="J67" s="24"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="10"/>
@@ -2692,7 +2698,7 @@
       <c r="A68" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B68" s="21"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2700,7 +2706,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="30"/>
+      <c r="J68" s="24"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="10"/>
@@ -2717,7 +2723,7 @@
       <c r="A69" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="21"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -2725,13 +2731,13 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="30"/>
+      <c r="J69" s="24"/>
     </row>
     <row r="70" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="21"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -2739,13 +2745,13 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="30"/>
+      <c r="J70" s="24"/>
     </row>
     <row r="71" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="21"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -2753,7 +2759,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="30"/>
+      <c r="J71" s="24"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="10"/>
@@ -2770,7 +2776,7 @@
       <c r="A72" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B72" s="21"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -2778,7 +2784,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="30"/>
+      <c r="J72" s="24"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="10"/>
@@ -2795,7 +2801,7 @@
       <c r="A73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="21"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -2803,13 +2809,13 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="30"/>
+      <c r="J73" s="24"/>
     </row>
     <row r="74" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="21"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -2817,13 +2823,13 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="30"/>
+      <c r="J74" s="24"/>
     </row>
     <row r="75" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="21"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -2831,13 +2837,13 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="30"/>
+      <c r="J75" s="24"/>
     </row>
     <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="21"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -2845,13 +2851,13 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="30"/>
+      <c r="J76" s="24"/>
     </row>
     <row r="77" spans="1:21" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B77" s="21"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -2859,7 +2865,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="30"/>
+      <c r="J77" s="24"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="10"/>
@@ -2876,7 +2882,7 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="21"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -2884,13 +2890,13 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="30"/>
+      <c r="J78" s="24"/>
     </row>
     <row r="79" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B79" s="21"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -2898,13 +2904,13 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="30"/>
+      <c r="J79" s="24"/>
     </row>
     <row r="80" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B80" s="21"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -2912,7 +2918,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="30"/>
+      <c r="J80" s="24"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="10"/>
@@ -2929,7 +2935,7 @@
       <c r="A81" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="21"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -2937,13 +2943,13 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="30"/>
+      <c r="J81" s="24"/>
     </row>
     <row r="82" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B82" s="21"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -2951,13 +2957,13 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="30"/>
+      <c r="J82" s="24"/>
     </row>
     <row r="83" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2965,13 +2971,13 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="30"/>
+      <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="21"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -2979,13 +2985,13 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="30"/>
+      <c r="J84" s="24"/>
     </row>
     <row r="85" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="21"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -2993,13 +2999,13 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="30"/>
+      <c r="J85" s="24"/>
     </row>
     <row r="86" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B86" s="21"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -3007,7 +3013,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="30"/>
+      <c r="J86" s="24"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="10"/>
@@ -3024,7 +3030,7 @@
       <c r="A87" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B87" s="21"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -3032,7 +3038,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="30"/>
+      <c r="J87" s="24"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="10"/>
@@ -3049,7 +3055,7 @@
       <c r="A88" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="21"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -3057,13 +3063,13 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="30"/>
+      <c r="J88" s="24"/>
     </row>
     <row r="89" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B89" s="21"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -3071,13 +3077,13 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="30"/>
+      <c r="J89" s="24"/>
     </row>
     <row r="90" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B90" s="21"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -3085,13 +3091,13 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="30"/>
+      <c r="J90" s="24"/>
     </row>
     <row r="91" spans="1:21" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B91" s="21"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -3099,7 +3105,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="30"/>
+      <c r="J91" s="24"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="10"/>
@@ -3116,7 +3122,7 @@
       <c r="A92" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B92" s="21"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -3124,7 +3130,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="30"/>
+      <c r="J92" s="24"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="10"/>
@@ -3141,7 +3147,7 @@
       <c r="A93" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B93" s="21"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -3149,7 +3155,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="30"/>
+      <c r="J93" s="24"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="10"/>
@@ -3166,7 +3172,7 @@
       <c r="A94" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B94" s="21"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -3174,13 +3180,13 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="30"/>
+      <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:21" s="11" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B95" s="21"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -3188,7 +3194,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="30"/>
+      <c r="J95" s="24"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="10"/>
@@ -3205,7 +3211,7 @@
       <c r="A96" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B96" s="21"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -3213,13 +3219,13 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="30"/>
+      <c r="J96" s="24"/>
     </row>
     <row r="97" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B97" s="21"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -3227,13 +3233,13 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="30"/>
+      <c r="J97" s="24"/>
     </row>
     <row r="98" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B98" s="21"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -3241,13 +3247,13 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="30"/>
+      <c r="J98" s="24"/>
     </row>
     <row r="99" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B99" s="21"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -3255,13 +3261,13 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="30"/>
+      <c r="J99" s="24"/>
     </row>
     <row r="100" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B100" s="21"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -3269,13 +3275,13 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="30"/>
+      <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="21"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -3283,13 +3289,13 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="30"/>
+      <c r="J101" s="24"/>
     </row>
     <row r="102" spans="1:21" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B102" s="21"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -3297,7 +3303,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="30"/>
+      <c r="J102" s="24"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="10"/>
@@ -3314,7 +3320,7 @@
       <c r="A103" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="21"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -3322,13 +3328,13 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="30"/>
+      <c r="J103" s="24"/>
     </row>
     <row r="104" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B104" s="21"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -3336,13 +3342,13 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="30"/>
+      <c r="J104" s="24"/>
     </row>
     <row r="105" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="21"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -3350,13 +3356,13 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="30"/>
+      <c r="J105" s="24"/>
     </row>
     <row r="106" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B106" s="21"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -3364,13 +3370,13 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="30"/>
+      <c r="J106" s="24"/>
     </row>
     <row r="107" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B107" s="21"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -3378,13 +3384,13 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-      <c r="J107" s="30"/>
+      <c r="J107" s="24"/>
     </row>
     <row r="108" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B108" s="21"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -3392,13 +3398,13 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
-      <c r="J108" s="30"/>
+      <c r="J108" s="24"/>
     </row>
     <row r="109" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="21"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -3406,13 +3412,13 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-      <c r="J109" s="30"/>
+      <c r="J109" s="24"/>
     </row>
     <row r="110" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B110" s="21"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -3420,7 +3426,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="30"/>
+      <c r="J110" s="24"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="10"/>
@@ -3437,7 +3443,7 @@
       <c r="A111" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B111" s="21"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3445,13 +3451,13 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="30"/>
+      <c r="J111" s="24"/>
     </row>
     <row r="112" spans="1:21" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B112" s="21"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -3459,7 +3465,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="30"/>
+      <c r="J112" s="24"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="10"/>
@@ -3476,7 +3482,7 @@
       <c r="A113" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B113" s="21"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -3484,13 +3490,13 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="30"/>
+      <c r="J113" s="24"/>
     </row>
     <row r="114" spans="1:21" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B114" s="21"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -3498,7 +3504,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="30"/>
+      <c r="J114" s="24"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="10"/>
@@ -3515,7 +3521,7 @@
       <c r="A115" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B115" s="21"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -3523,7 +3529,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="30"/>
+      <c r="J115" s="24"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="10"/>
@@ -3540,7 +3546,7 @@
       <c r="A116" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B116" s="21"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -3548,13 +3554,13 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="30"/>
+      <c r="J116" s="24"/>
     </row>
     <row r="117" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="21"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -3562,13 +3568,13 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="30"/>
+      <c r="J117" s="24"/>
     </row>
     <row r="118" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B118" s="21"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -3576,13 +3582,13 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="30"/>
+      <c r="J118" s="24"/>
     </row>
     <row r="119" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B119" s="21"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -3590,13 +3596,13 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="30"/>
+      <c r="J119" s="24"/>
     </row>
     <row r="120" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B120" s="21"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -3604,13 +3610,13 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
-      <c r="J120" s="30"/>
+      <c r="J120" s="24"/>
     </row>
     <row r="121" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B121" s="21"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -3618,13 +3624,13 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
-      <c r="J121" s="30"/>
+      <c r="J121" s="24"/>
     </row>
     <row r="122" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B122" s="21"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -3632,13 +3638,13 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="30"/>
+      <c r="J122" s="24"/>
     </row>
     <row r="123" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B123" s="21"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -3646,13 +3652,13 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="30"/>
+      <c r="J123" s="24"/>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B124" s="21"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -3660,13 +3666,13 @@
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="30"/>
+      <c r="J124" s="24"/>
     </row>
     <row r="125" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B125" s="21"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -3674,13 +3680,13 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="30"/>
+      <c r="J125" s="24"/>
     </row>
     <row r="126" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B126" s="21"/>
+      <c r="B126" s="30"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -3688,13 +3694,13 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="30"/>
+      <c r="J126" s="24"/>
     </row>
     <row r="127" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B127" s="21"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -3702,13 +3708,13 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
-      <c r="J127" s="30"/>
+      <c r="J127" s="24"/>
     </row>
     <row r="128" spans="1:21" s="11" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B128" s="21"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -3716,7 +3722,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
-      <c r="J128" s="30"/>
+      <c r="J128" s="24"/>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="M128" s="10"/>
@@ -3733,7 +3739,7 @@
       <c r="A129" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="21"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -3741,13 +3747,13 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
-      <c r="J129" s="30"/>
+      <c r="J129" s="24"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B130" s="21"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -3755,13 +3761,13 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
-      <c r="J130" s="30"/>
+      <c r="J130" s="24"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B131" s="21"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -3769,13 +3775,13 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
-      <c r="J131" s="30"/>
+      <c r="J131" s="24"/>
     </row>
     <row r="132" spans="1:21" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B132" s="21"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -3783,7 +3789,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
-      <c r="J132" s="30"/>
+      <c r="J132" s="24"/>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="10"/>
@@ -3800,7 +3806,7 @@
       <c r="A133" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B133" s="21"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -3808,7 +3814,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
-      <c r="J133" s="30"/>
+      <c r="J133" s="24"/>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="10"/>
@@ -3825,7 +3831,7 @@
       <c r="A134" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B134" s="21"/>
+      <c r="B134" s="30"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -3833,13 +3839,13 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
-      <c r="J134" s="30"/>
+      <c r="J134" s="24"/>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B135" s="21"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -3847,13 +3853,13 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
-      <c r="J135" s="30"/>
+      <c r="J135" s="24"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B136" s="21"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -3861,7 +3867,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
-      <c r="J136" s="30"/>
+      <c r="J136" s="24"/>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="10"/>
@@ -3878,7 +3884,7 @@
       <c r="A137" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B137" s="21"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -3886,13 +3892,13 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
-      <c r="J137" s="30"/>
+      <c r="J137" s="24"/>
     </row>
     <row r="138" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B138" s="21"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -3900,7 +3906,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="30"/>
+      <c r="J138" s="24"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
       <c r="M138" s="10"/>
@@ -3917,7 +3923,7 @@
       <c r="A139" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B139" s="21"/>
+      <c r="B139" s="30"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -3925,13 +3931,13 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
-      <c r="J139" s="30"/>
+      <c r="J139" s="24"/>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B140" s="21"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -3939,13 +3945,13 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
-      <c r="J140" s="30"/>
+      <c r="J140" s="24"/>
     </row>
     <row r="141" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B141" s="21"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -3953,13 +3959,13 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
-      <c r="J141" s="30"/>
+      <c r="J141" s="24"/>
     </row>
     <row r="142" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B142" s="21"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -3967,13 +3973,13 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="30"/>
+      <c r="J142" s="24"/>
     </row>
     <row r="143" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B143" s="21"/>
+      <c r="B143" s="30"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -3981,13 +3987,13 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
-      <c r="J143" s="30"/>
+      <c r="J143" s="24"/>
     </row>
     <row r="144" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B144" s="21"/>
+      <c r="B144" s="30"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -3995,13 +4001,13 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
-      <c r="J144" s="30"/>
+      <c r="J144" s="24"/>
     </row>
     <row r="145" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B145" s="21"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -4009,13 +4015,13 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
-      <c r="J145" s="30"/>
+      <c r="J145" s="24"/>
     </row>
     <row r="146" spans="1:21" s="11" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B146" s="21"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -4023,7 +4029,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
-      <c r="J146" s="30"/>
+      <c r="J146" s="24"/>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
       <c r="M146" s="10"/>
@@ -4040,7 +4046,7 @@
       <c r="A147" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B147" s="21"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -4048,7 +4054,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
-      <c r="J147" s="30"/>
+      <c r="J147" s="24"/>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
       <c r="M147" s="10"/>
@@ -4065,7 +4071,7 @@
       <c r="A148" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B148" s="21"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -4073,13 +4079,13 @@
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
-      <c r="J148" s="30"/>
+      <c r="J148" s="24"/>
     </row>
     <row r="149" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B149" s="21"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -4087,13 +4093,13 @@
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
-      <c r="J149" s="30"/>
+      <c r="J149" s="24"/>
     </row>
     <row r="150" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B150" s="21"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -4101,7 +4107,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
-      <c r="J150" s="30"/>
+      <c r="J150" s="24"/>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
       <c r="M150" s="10"/>
@@ -4118,7 +4124,7 @@
       <c r="A151" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B151" s="21"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -4126,7 +4132,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
-      <c r="J151" s="30"/>
+      <c r="J151" s="24"/>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
       <c r="M151" s="10"/>
@@ -4143,7 +4149,7 @@
       <c r="A152" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B152" s="21"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -4151,7 +4157,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
-      <c r="J152" s="30"/>
+      <c r="J152" s="24"/>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
       <c r="M152" s="10"/>
@@ -4168,7 +4174,7 @@
       <c r="A153" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B153" s="21"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -4176,13 +4182,13 @@
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
-      <c r="J153" s="30"/>
+      <c r="J153" s="24"/>
     </row>
     <row r="154" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B154" s="21"/>
+      <c r="B154" s="30"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -4190,7 +4196,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
-      <c r="J154" s="30"/>
+      <c r="J154" s="24"/>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
       <c r="M154" s="10"/>
@@ -4207,7 +4213,7 @@
       <c r="A155" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B155" s="21"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -4215,13 +4221,13 @@
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
-      <c r="J155" s="30"/>
+      <c r="J155" s="24"/>
     </row>
     <row r="156" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B156" s="21"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -4229,13 +4235,13 @@
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
-      <c r="J156" s="30"/>
+      <c r="J156" s="24"/>
     </row>
     <row r="157" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B157" s="21"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -4243,13 +4249,13 @@
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
-      <c r="J157" s="30"/>
+      <c r="J157" s="24"/>
     </row>
     <row r="158" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B158" s="21"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -4257,13 +4263,13 @@
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
-      <c r="J158" s="30"/>
+      <c r="J158" s="24"/>
     </row>
     <row r="159" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B159" s="21"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -4271,7 +4277,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
-      <c r="J159" s="30"/>
+      <c r="J159" s="24"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
       <c r="M159" s="10"/>
@@ -4288,7 +4294,7 @@
       <c r="A160" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B160" s="21"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -4296,7 +4302,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
-      <c r="J160" s="30"/>
+      <c r="J160" s="24"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
       <c r="M160" s="10"/>
@@ -4313,7 +4319,7 @@
       <c r="A161" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B161" s="21"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -4321,7 +4327,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
-      <c r="J161" s="30"/>
+      <c r="J161" s="24"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
       <c r="M161" s="10"/>
@@ -4338,7 +4344,7 @@
       <c r="A162" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B162" s="21"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -4346,7 +4352,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
-      <c r="J162" s="30"/>
+      <c r="J162" s="24"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
       <c r="M162" s="10"/>
@@ -4363,7 +4369,7 @@
       <c r="A163" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B163" s="21"/>
+      <c r="B163" s="30"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -4371,13 +4377,13 @@
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
-      <c r="J163" s="30"/>
+      <c r="J163" s="24"/>
     </row>
     <row r="164" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B164" s="21"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -4385,13 +4391,13 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
-      <c r="J164" s="30"/>
+      <c r="J164" s="24"/>
     </row>
     <row r="165" spans="1:21" ht="165" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B165" s="21"/>
+      <c r="B165" s="30"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -4399,13 +4405,13 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
-      <c r="J165" s="30"/>
+      <c r="J165" s="24"/>
     </row>
     <row r="166" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B166" s="21"/>
+      <c r="B166" s="30"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -4413,13 +4419,13 @@
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
-      <c r="J166" s="30"/>
+      <c r="J166" s="24"/>
     </row>
     <row r="167" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B167" s="21"/>
+      <c r="B167" s="30"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -4427,13 +4433,13 @@
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
-      <c r="J167" s="30"/>
+      <c r="J167" s="24"/>
     </row>
     <row r="168" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B168" s="21"/>
+      <c r="B168" s="30"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -4441,13 +4447,13 @@
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
-      <c r="J168" s="30"/>
+      <c r="J168" s="24"/>
     </row>
     <row r="169" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B169" s="21"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -4455,13 +4461,13 @@
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
-      <c r="J169" s="30"/>
+      <c r="J169" s="24"/>
     </row>
     <row r="170" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B170" s="21"/>
+      <c r="B170" s="30"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -4469,13 +4475,13 @@
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
-      <c r="J170" s="30"/>
+      <c r="J170" s="24"/>
     </row>
     <row r="171" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B171" s="21"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -4483,13 +4489,13 @@
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
-      <c r="J171" s="30"/>
+      <c r="J171" s="24"/>
     </row>
     <row r="172" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B172" s="21"/>
+      <c r="B172" s="30"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -4497,13 +4503,13 @@
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
-      <c r="J172" s="30"/>
+      <c r="J172" s="24"/>
     </row>
     <row r="173" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B173" s="21"/>
+      <c r="B173" s="30"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -4511,13 +4517,13 @@
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
-      <c r="J173" s="30"/>
+      <c r="J173" s="24"/>
     </row>
     <row r="174" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B174" s="21"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
@@ -4525,13 +4531,13 @@
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
-      <c r="J174" s="30"/>
+      <c r="J174" s="24"/>
     </row>
     <row r="175" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B175" s="21"/>
+      <c r="B175" s="30"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -4539,13 +4545,13 @@
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
-      <c r="J175" s="30"/>
+      <c r="J175" s="24"/>
     </row>
     <row r="176" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B176" s="21"/>
+      <c r="B176" s="30"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
@@ -4553,13 +4559,13 @@
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
-      <c r="J176" s="30"/>
+      <c r="J176" s="24"/>
     </row>
     <row r="177" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B177" s="21"/>
+      <c r="B177" s="30"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -4567,13 +4573,13 @@
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
-      <c r="J177" s="30"/>
+      <c r="J177" s="24"/>
     </row>
     <row r="178" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B178" s="21"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
@@ -4581,13 +4587,13 @@
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
-      <c r="J178" s="30"/>
+      <c r="J178" s="24"/>
     </row>
     <row r="179" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B179" s="21"/>
+      <c r="B179" s="30"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -4595,13 +4601,13 @@
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
-      <c r="J179" s="30"/>
+      <c r="J179" s="24"/>
     </row>
     <row r="180" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B180" s="21"/>
+      <c r="B180" s="30"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -4609,13 +4615,13 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
-      <c r="J180" s="30"/>
+      <c r="J180" s="24"/>
     </row>
     <row r="181" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B181" s="21"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -4623,13 +4629,13 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
-      <c r="J181" s="30"/>
+      <c r="J181" s="24"/>
     </row>
     <row r="182" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B182" s="21"/>
+      <c r="B182" s="30"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
@@ -4637,13 +4643,13 @@
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
-      <c r="J182" s="30"/>
+      <c r="J182" s="24"/>
     </row>
     <row r="183" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B183" s="21"/>
+      <c r="B183" s="30"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -4651,13 +4657,13 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
-      <c r="J183" s="30"/>
+      <c r="J183" s="24"/>
     </row>
     <row r="184" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B184" s="21"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
@@ -4665,13 +4671,13 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
-      <c r="J184" s="30"/>
+      <c r="J184" s="24"/>
     </row>
     <row r="185" spans="1:21" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B185" s="21"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -4679,7 +4685,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
-      <c r="J185" s="30"/>
+      <c r="J185" s="24"/>
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
       <c r="M185" s="10"/>
@@ -4696,7 +4702,7 @@
       <c r="A186" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B186" s="21"/>
+      <c r="B186" s="30"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -4704,13 +4710,13 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
-      <c r="J186" s="30"/>
+      <c r="J186" s="24"/>
     </row>
     <row r="187" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B187" s="21"/>
+      <c r="B187" s="30"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -4718,13 +4724,13 @@
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
-      <c r="J187" s="30"/>
+      <c r="J187" s="24"/>
     </row>
     <row r="188" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B188" s="21"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
@@ -4732,13 +4738,13 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
-      <c r="J188" s="30"/>
+      <c r="J188" s="24"/>
     </row>
     <row r="189" spans="1:21" ht="270" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B189" s="21"/>
+      <c r="B189" s="30"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -4746,13 +4752,13 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
-      <c r="J189" s="30"/>
+      <c r="J189" s="24"/>
     </row>
     <row r="190" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B190" s="21"/>
+      <c r="B190" s="30"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
@@ -4760,13 +4766,13 @@
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
-      <c r="J190" s="30"/>
+      <c r="J190" s="24"/>
     </row>
     <row r="191" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B191" s="21"/>
+      <c r="B191" s="30"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -4774,13 +4780,13 @@
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
-      <c r="J191" s="30"/>
+      <c r="J191" s="24"/>
     </row>
     <row r="192" spans="1:21" s="11" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B192" s="21"/>
+      <c r="B192" s="30"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
@@ -4788,7 +4794,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
-      <c r="J192" s="30"/>
+      <c r="J192" s="24"/>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
       <c r="M192" s="10"/>
@@ -4805,7 +4811,7 @@
       <c r="A193" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B193" s="21"/>
+      <c r="B193" s="30"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -4813,13 +4819,13 @@
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
-      <c r="J193" s="30"/>
+      <c r="J193" s="24"/>
     </row>
     <row r="194" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B194" s="21"/>
+      <c r="B194" s="30"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
@@ -4827,13 +4833,13 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
-      <c r="J194" s="30"/>
+      <c r="J194" s="24"/>
     </row>
     <row r="195" spans="1:21" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B195" s="21"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -4841,7 +4847,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
-      <c r="J195" s="30"/>
+      <c r="J195" s="24"/>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
       <c r="M195" s="10"/>
@@ -4858,7 +4864,7 @@
       <c r="A196" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B196" s="21"/>
+      <c r="B196" s="30"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -4866,7 +4872,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
-      <c r="J196" s="30"/>
+      <c r="J196" s="24"/>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
       <c r="M196" s="10"/>
@@ -4883,7 +4889,7 @@
       <c r="A197" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B197" s="21"/>
+      <c r="B197" s="30"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -4891,7 +4897,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
-      <c r="J197" s="30"/>
+      <c r="J197" s="24"/>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
       <c r="M197" s="10"/>
@@ -4908,7 +4914,7 @@
       <c r="A198" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B198" s="21"/>
+      <c r="B198" s="30"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
@@ -4916,13 +4922,13 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
-      <c r="J198" s="30"/>
+      <c r="J198" s="24"/>
     </row>
     <row r="199" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B199" s="21"/>
+      <c r="B199" s="30"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -4930,13 +4936,13 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
-      <c r="J199" s="30"/>
+      <c r="J199" s="24"/>
     </row>
     <row r="200" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B200" s="21"/>
+      <c r="B200" s="30"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
@@ -4944,13 +4950,13 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
-      <c r="J200" s="30"/>
+      <c r="J200" s="24"/>
     </row>
     <row r="201" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B201" s="21"/>
+      <c r="B201" s="30"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -4958,13 +4964,13 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
-      <c r="J201" s="30"/>
+      <c r="J201" s="24"/>
     </row>
     <row r="202" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B202" s="21"/>
+      <c r="B202" s="30"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
@@ -4972,13 +4978,13 @@
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
-      <c r="J202" s="30"/>
+      <c r="J202" s="24"/>
     </row>
     <row r="203" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B203" s="21"/>
+      <c r="B203" s="30"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -4986,13 +4992,13 @@
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
-      <c r="J203" s="30"/>
+      <c r="J203" s="24"/>
     </row>
     <row r="204" spans="1:21" s="15" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B204" s="21"/>
+      <c r="B204" s="30"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
@@ -5000,7 +5006,7 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
-      <c r="J204" s="30"/>
+      <c r="J204" s="24"/>
       <c r="K204" s="13"/>
       <c r="L204" s="13"/>
       <c r="M204" s="14"/>
@@ -5017,7 +5023,7 @@
       <c r="A205" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B205" s="21"/>
+      <c r="B205" s="30"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -5025,7 +5031,7 @@
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
-      <c r="J205" s="30"/>
+      <c r="J205" s="24"/>
       <c r="K205" s="8"/>
       <c r="L205" s="8"/>
       <c r="M205" s="10"/>
@@ -5042,7 +5048,7 @@
       <c r="A206" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B206" s="21"/>
+      <c r="B206" s="30"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
@@ -5050,13 +5056,13 @@
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
-      <c r="J206" s="30"/>
+      <c r="J206" s="24"/>
     </row>
     <row r="207" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B207" s="21"/>
+      <c r="B207" s="30"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -5064,7 +5070,7 @@
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
-      <c r="J207" s="30"/>
+      <c r="J207" s="24"/>
       <c r="K207" s="8"/>
       <c r="L207" s="8"/>
       <c r="M207" s="10"/>
@@ -5081,7 +5087,7 @@
       <c r="A208" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="B208" s="21"/>
+      <c r="B208" s="30"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
@@ -5089,7 +5095,7 @@
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
-      <c r="J208" s="30"/>
+      <c r="J208" s="24"/>
       <c r="K208" s="8"/>
       <c r="L208" s="8"/>
       <c r="M208" s="10"/>
@@ -5106,7 +5112,7 @@
       <c r="A209" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B209" s="21"/>
+      <c r="B209" s="30"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -5114,13 +5120,13 @@
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
-      <c r="J209" s="30"/>
+      <c r="J209" s="24"/>
     </row>
     <row r="210" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B210" s="21"/>
+      <c r="B210" s="30"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
@@ -5128,13 +5134,13 @@
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
-      <c r="J210" s="30"/>
+      <c r="J210" s="24"/>
     </row>
     <row r="211" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B211" s="21"/>
+      <c r="B211" s="30"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -5142,7 +5148,7 @@
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
-      <c r="J211" s="30"/>
+      <c r="J211" s="24"/>
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
       <c r="M211" s="10"/>
@@ -5159,7 +5165,7 @@
       <c r="A212" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B212" s="21"/>
+      <c r="B212" s="30"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
@@ -5167,13 +5173,13 @@
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
-      <c r="J212" s="30"/>
+      <c r="J212" s="24"/>
     </row>
     <row r="213" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B213" s="21"/>
+      <c r="B213" s="30"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -5181,13 +5187,13 @@
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
-      <c r="J213" s="30"/>
+      <c r="J213" s="24"/>
     </row>
     <row r="214" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B214" s="21"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
@@ -5195,7 +5201,7 @@
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
-      <c r="J214" s="30"/>
+      <c r="J214" s="24"/>
       <c r="K214" s="8"/>
       <c r="L214" s="8"/>
       <c r="M214" s="10"/>
@@ -5212,7 +5218,7 @@
       <c r="A215" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B215" s="21"/>
+      <c r="B215" s="30"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -5220,7 +5226,7 @@
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
-      <c r="J215" s="30"/>
+      <c r="J215" s="24"/>
       <c r="K215" s="8"/>
       <c r="L215" s="8"/>
       <c r="M215" s="10"/>
@@ -5237,7 +5243,7 @@
       <c r="A216" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B216" s="21"/>
+      <c r="B216" s="30"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
@@ -5245,7 +5251,7 @@
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
-      <c r="J216" s="30"/>
+      <c r="J216" s="24"/>
       <c r="K216" s="8"/>
       <c r="L216" s="8"/>
       <c r="M216" s="10"/>
@@ -5262,7 +5268,7 @@
       <c r="A217" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B217" s="21"/>
+      <c r="B217" s="30"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -5270,13 +5276,13 @@
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
-      <c r="J217" s="30"/>
+      <c r="J217" s="24"/>
     </row>
     <row r="218" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B218" s="21"/>
+      <c r="B218" s="30"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
@@ -5284,13 +5290,13 @@
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
-      <c r="J218" s="30"/>
+      <c r="J218" s="24"/>
     </row>
     <row r="219" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B219" s="21"/>
+      <c r="B219" s="30"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -5298,13 +5304,13 @@
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
-      <c r="J219" s="30"/>
+      <c r="J219" s="24"/>
     </row>
     <row r="220" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B220" s="21"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
@@ -5312,13 +5318,13 @@
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
-      <c r="J220" s="30"/>
+      <c r="J220" s="24"/>
     </row>
     <row r="221" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B221" s="21"/>
+      <c r="B221" s="30"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -5326,7 +5332,7 @@
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
-      <c r="J221" s="30"/>
+      <c r="J221" s="24"/>
       <c r="K221" s="8"/>
       <c r="L221" s="8"/>
       <c r="M221" s="10"/>
@@ -5343,7 +5349,7 @@
       <c r="A222" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B222" s="21"/>
+      <c r="B222" s="30"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
@@ -5351,7 +5357,7 @@
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
-      <c r="J222" s="30"/>
+      <c r="J222" s="24"/>
       <c r="K222" s="8"/>
       <c r="L222" s="8"/>
       <c r="M222" s="10"/>
@@ -5368,7 +5374,7 @@
       <c r="A223" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B223" s="21"/>
+      <c r="B223" s="30"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -5376,7 +5382,7 @@
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
-      <c r="J223" s="30"/>
+      <c r="J223" s="24"/>
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
       <c r="M223" s="10"/>
@@ -5393,7 +5399,7 @@
       <c r="A224" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B224" s="21"/>
+      <c r="B224" s="30"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
@@ -5401,13 +5407,13 @@
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
-      <c r="J224" s="30"/>
+      <c r="J224" s="24"/>
     </row>
     <row r="225" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B225" s="21"/>
+      <c r="B225" s="30"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -5415,13 +5421,13 @@
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
-      <c r="J225" s="30"/>
+      <c r="J225" s="24"/>
     </row>
     <row r="226" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B226" s="21"/>
+      <c r="B226" s="30"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
@@ -5429,13 +5435,13 @@
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
-      <c r="J226" s="30"/>
+      <c r="J226" s="24"/>
     </row>
     <row r="227" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B227" s="21"/>
+      <c r="B227" s="30"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -5443,13 +5449,13 @@
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
-      <c r="J227" s="30"/>
+      <c r="J227" s="24"/>
     </row>
     <row r="228" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B228" s="21"/>
+      <c r="B228" s="30"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
@@ -5457,13 +5463,13 @@
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
-      <c r="J228" s="30"/>
+      <c r="J228" s="24"/>
     </row>
     <row r="229" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B229" s="21"/>
+      <c r="B229" s="30"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -5471,13 +5477,13 @@
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
-      <c r="J229" s="30"/>
+      <c r="J229" s="24"/>
     </row>
     <row r="230" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B230" s="21"/>
+      <c r="B230" s="30"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
@@ -5485,13 +5491,13 @@
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
-      <c r="J230" s="30"/>
+      <c r="J230" s="24"/>
     </row>
     <row r="231" spans="1:21" s="11" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B231" s="21"/>
+      <c r="B231" s="30"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -5499,7 +5505,7 @@
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
-      <c r="J231" s="30"/>
+      <c r="J231" s="24"/>
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
       <c r="M231" s="10"/>
@@ -5516,7 +5522,7 @@
       <c r="A232" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B232" s="21"/>
+      <c r="B232" s="30"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
@@ -5524,7 +5530,7 @@
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
-      <c r="J232" s="30"/>
+      <c r="J232" s="24"/>
       <c r="K232" s="8"/>
       <c r="L232" s="8"/>
       <c r="M232" s="10"/>
@@ -5541,7 +5547,7 @@
       <c r="A233" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B233" s="21"/>
+      <c r="B233" s="30"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -5549,13 +5555,13 @@
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
-      <c r="J233" s="30"/>
+      <c r="J233" s="24"/>
     </row>
     <row r="234" spans="1:21" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B234" s="21"/>
+      <c r="B234" s="30"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
@@ -5563,7 +5569,7 @@
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
-      <c r="J234" s="30"/>
+      <c r="J234" s="24"/>
       <c r="K234" s="8"/>
       <c r="L234" s="8"/>
       <c r="M234" s="10"/>
@@ -5580,7 +5586,7 @@
       <c r="A235" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B235" s="21"/>
+      <c r="B235" s="30"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -5588,13 +5594,13 @@
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
-      <c r="J235" s="30"/>
+      <c r="J235" s="24"/>
     </row>
     <row r="236" spans="1:21" s="11" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B236" s="21"/>
+      <c r="B236" s="30"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
@@ -5602,7 +5608,7 @@
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
-      <c r="J236" s="30"/>
+      <c r="J236" s="24"/>
       <c r="K236" s="8"/>
       <c r="L236" s="8"/>
       <c r="M236" s="10"/>
@@ -5619,7 +5625,7 @@
       <c r="A237" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B237" s="21"/>
+      <c r="B237" s="30"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -5627,13 +5633,13 @@
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
-      <c r="J237" s="30"/>
+      <c r="J237" s="24"/>
     </row>
     <row r="238" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B238" s="21"/>
+      <c r="B238" s="30"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
@@ -5641,13 +5647,13 @@
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
-      <c r="J238" s="30"/>
+      <c r="J238" s="24"/>
     </row>
     <row r="239" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B239" s="21"/>
+      <c r="B239" s="30"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -5655,13 +5661,13 @@
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
-      <c r="J239" s="30"/>
+      <c r="J239" s="24"/>
     </row>
     <row r="240" spans="1:21" s="11" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B240" s="21"/>
+      <c r="B240" s="30"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
@@ -5669,7 +5675,7 @@
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
-      <c r="J240" s="30"/>
+      <c r="J240" s="24"/>
       <c r="K240" s="8"/>
       <c r="L240" s="8"/>
       <c r="M240" s="10"/>
@@ -5686,7 +5692,7 @@
       <c r="A241" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B241" s="21"/>
+      <c r="B241" s="30"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -5694,7 +5700,7 @@
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
-      <c r="J241" s="30"/>
+      <c r="J241" s="24"/>
       <c r="K241" s="8"/>
       <c r="L241" s="8"/>
       <c r="M241" s="10"/>
@@ -5711,7 +5717,7 @@
       <c r="A242" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B242" s="21"/>
+      <c r="B242" s="30"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
@@ -5719,13 +5725,13 @@
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
-      <c r="J242" s="30"/>
+      <c r="J242" s="24"/>
     </row>
     <row r="243" spans="1:21" s="11" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B243" s="21"/>
+      <c r="B243" s="30"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -5733,7 +5739,7 @@
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
-      <c r="J243" s="30"/>
+      <c r="J243" s="24"/>
       <c r="K243" s="8"/>
       <c r="L243" s="8"/>
       <c r="M243" s="10"/>
@@ -5750,7 +5756,7 @@
       <c r="A244" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B244" s="21"/>
+      <c r="B244" s="30"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
@@ -5758,13 +5764,13 @@
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
-      <c r="J244" s="30"/>
+      <c r="J244" s="24"/>
     </row>
     <row r="245" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B245" s="21"/>
+      <c r="B245" s="30"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -5772,13 +5778,13 @@
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
-      <c r="J245" s="30"/>
+      <c r="J245" s="24"/>
     </row>
     <row r="246" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B246" s="21"/>
+      <c r="B246" s="30"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
@@ -5786,13 +5792,13 @@
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
-      <c r="J246" s="30"/>
+      <c r="J246" s="24"/>
     </row>
     <row r="247" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B247" s="21"/>
+      <c r="B247" s="30"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -5800,13 +5806,13 @@
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
-      <c r="J247" s="30"/>
+      <c r="J247" s="24"/>
     </row>
     <row r="248" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B248" s="21"/>
+      <c r="B248" s="30"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
@@ -5814,13 +5820,13 @@
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
-      <c r="J248" s="30"/>
+      <c r="J248" s="24"/>
     </row>
     <row r="249" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B249" s="21"/>
+      <c r="B249" s="30"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -5828,13 +5834,13 @@
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
-      <c r="J249" s="30"/>
+      <c r="J249" s="24"/>
     </row>
     <row r="250" spans="1:21" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B250" s="21"/>
+      <c r="B250" s="30"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
@@ -5842,7 +5848,7 @@
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
-      <c r="J250" s="30"/>
+      <c r="J250" s="24"/>
       <c r="K250" s="8"/>
       <c r="L250" s="8"/>
       <c r="M250" s="10"/>
@@ -5859,7 +5865,7 @@
       <c r="A251" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B251" s="21"/>
+      <c r="B251" s="30"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -5867,7 +5873,7 @@
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
-      <c r="J251" s="30"/>
+      <c r="J251" s="24"/>
       <c r="K251" s="8"/>
       <c r="L251" s="8"/>
       <c r="M251" s="10"/>
@@ -5884,7 +5890,7 @@
       <c r="A252" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B252" s="21"/>
+      <c r="B252" s="30"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
@@ -5892,7 +5898,7 @@
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
-      <c r="J252" s="30"/>
+      <c r="J252" s="24"/>
       <c r="K252" s="8"/>
       <c r="L252" s="8"/>
       <c r="M252" s="10"/>
@@ -5909,7 +5915,7 @@
       <c r="A253" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B253" s="21"/>
+      <c r="B253" s="30"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -5917,13 +5923,13 @@
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
-      <c r="J253" s="30"/>
+      <c r="J253" s="24"/>
     </row>
     <row r="254" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B254" s="21"/>
+      <c r="B254" s="30"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
@@ -5931,13 +5937,13 @@
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
-      <c r="J254" s="30"/>
+      <c r="J254" s="24"/>
     </row>
     <row r="255" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B255" s="21"/>
+      <c r="B255" s="30"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -5945,13 +5951,13 @@
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
-      <c r="J255" s="30"/>
+      <c r="J255" s="24"/>
     </row>
     <row r="256" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B256" s="21"/>
+      <c r="B256" s="30"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
@@ -5959,13 +5965,13 @@
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
-      <c r="J256" s="30"/>
+      <c r="J256" s="24"/>
     </row>
     <row r="257" spans="1:21" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B257" s="21"/>
+      <c r="B257" s="30"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -5973,7 +5979,7 @@
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
-      <c r="J257" s="30"/>
+      <c r="J257" s="24"/>
       <c r="K257" s="8"/>
       <c r="L257" s="8"/>
       <c r="M257" s="10"/>
@@ -5990,7 +5996,7 @@
       <c r="A258" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B258" s="21"/>
+      <c r="B258" s="30"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
@@ -5998,13 +6004,13 @@
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
-      <c r="J258" s="30"/>
+      <c r="J258" s="24"/>
     </row>
     <row r="259" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B259" s="21"/>
+      <c r="B259" s="30"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -6012,13 +6018,13 @@
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
-      <c r="J259" s="30"/>
+      <c r="J259" s="24"/>
     </row>
     <row r="260" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B260" s="21"/>
+      <c r="B260" s="30"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
@@ -6026,13 +6032,13 @@
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
-      <c r="J260" s="30"/>
+      <c r="J260" s="24"/>
     </row>
     <row r="261" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B261" s="21"/>
+      <c r="B261" s="30"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -6040,13 +6046,13 @@
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
-      <c r="J261" s="30"/>
+      <c r="J261" s="24"/>
     </row>
     <row r="262" spans="1:21" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B262" s="21"/>
+      <c r="B262" s="30"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
@@ -6054,7 +6060,7 @@
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
-      <c r="J262" s="30"/>
+      <c r="J262" s="24"/>
       <c r="K262" s="8"/>
       <c r="L262" s="8"/>
       <c r="M262" s="10"/>
@@ -6071,7 +6077,7 @@
       <c r="A263" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B263" s="21"/>
+      <c r="B263" s="30"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -6079,13 +6085,13 @@
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
-      <c r="J263" s="30"/>
+      <c r="J263" s="24"/>
     </row>
     <row r="264" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B264" s="21"/>
+      <c r="B264" s="30"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
@@ -6093,13 +6099,13 @@
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
-      <c r="J264" s="30"/>
+      <c r="J264" s="24"/>
     </row>
     <row r="265" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B265" s="21"/>
+      <c r="B265" s="30"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -6107,13 +6113,13 @@
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
-      <c r="J265" s="30"/>
+      <c r="J265" s="24"/>
     </row>
     <row r="266" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B266" s="21"/>
+      <c r="B266" s="30"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
@@ -6121,13 +6127,13 @@
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
-      <c r="J266" s="30"/>
+      <c r="J266" s="24"/>
     </row>
     <row r="267" spans="1:21" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B267" s="21"/>
+      <c r="B267" s="30"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -6135,7 +6141,7 @@
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
-      <c r="J267" s="30"/>
+      <c r="J267" s="24"/>
       <c r="K267" s="8"/>
       <c r="L267" s="8"/>
       <c r="M267" s="10"/>
@@ -6152,7 +6158,7 @@
       <c r="A268" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B268" s="21"/>
+      <c r="B268" s="30"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
@@ -6160,7 +6166,7 @@
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
-      <c r="J268" s="30"/>
+      <c r="J268" s="24"/>
       <c r="K268" s="8"/>
       <c r="L268" s="8"/>
       <c r="M268" s="10"/>
@@ -6177,7 +6183,7 @@
       <c r="A269" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B269" s="21"/>
+      <c r="B269" s="30"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -6185,7 +6191,7 @@
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
-      <c r="J269" s="30"/>
+      <c r="J269" s="24"/>
       <c r="K269" s="8"/>
       <c r="L269" s="8"/>
       <c r="M269" s="10"/>
@@ -6202,7 +6208,7 @@
       <c r="A270" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B270" s="21"/>
+      <c r="B270" s="30"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
@@ -6210,7 +6216,7 @@
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
-      <c r="J270" s="30"/>
+      <c r="J270" s="24"/>
       <c r="K270" s="8"/>
       <c r="L270" s="8"/>
       <c r="M270" s="10"/>
@@ -6225,7 +6231,7 @@
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272"/>
-      <c r="B272" s="22"/>
+      <c r="B272" s="26"/>
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272"/>
@@ -6233,7 +6239,7 @@
       <c r="G272"/>
       <c r="H272"/>
       <c r="I272"/>
-      <c r="J272" s="25"/>
+      <c r="J272" s="22"/>
       <c r="K272"/>
       <c r="L272"/>
       <c r="M272"/>
@@ -6248,7 +6254,7 @@
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273"/>
-      <c r="B273" s="22"/>
+      <c r="B273" s="26"/>
       <c r="C273"/>
       <c r="D273"/>
       <c r="E273"/>
@@ -6256,7 +6262,7 @@
       <c r="G273"/>
       <c r="H273"/>
       <c r="I273"/>
-      <c r="J273" s="25"/>
+      <c r="J273" s="22"/>
       <c r="K273"/>
       <c r="L273"/>
       <c r="M273"/>
@@ -6271,7 +6277,7 @@
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274"/>
-      <c r="B274" s="22"/>
+      <c r="B274" s="26"/>
       <c r="C274"/>
       <c r="D274"/>
       <c r="E274"/>
@@ -6279,7 +6285,7 @@
       <c r="G274"/>
       <c r="H274"/>
       <c r="I274"/>
-      <c r="J274" s="25"/>
+      <c r="J274" s="22"/>
       <c r="K274"/>
       <c r="L274"/>
       <c r="M274"/>
@@ -6294,7 +6300,7 @@
     </row>
     <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275"/>
-      <c r="B275" s="22"/>
+      <c r="B275" s="26"/>
       <c r="C275"/>
       <c r="D275"/>
       <c r="E275"/>
@@ -6302,7 +6308,7 @@
       <c r="G275"/>
       <c r="H275"/>
       <c r="I275"/>
-      <c r="J275" s="25"/>
+      <c r="J275" s="22"/>
       <c r="K275"/>
       <c r="L275"/>
       <c r="M275"/>
@@ -6317,7 +6323,7 @@
     </row>
     <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276"/>
-      <c r="B276" s="22"/>
+      <c r="B276" s="26"/>
       <c r="C276"/>
       <c r="D276"/>
       <c r="E276"/>
@@ -6325,7 +6331,7 @@
       <c r="G276"/>
       <c r="H276"/>
       <c r="I276"/>
-      <c r="J276" s="25"/>
+      <c r="J276" s="22"/>
       <c r="K276"/>
       <c r="L276"/>
       <c r="M276"/>
@@ -6340,7 +6346,7 @@
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277"/>
-      <c r="B277" s="22"/>
+      <c r="B277" s="26"/>
       <c r="C277"/>
       <c r="D277"/>
       <c r="E277"/>
@@ -6348,7 +6354,7 @@
       <c r="G277"/>
       <c r="H277"/>
       <c r="I277"/>
-      <c r="J277" s="25"/>
+      <c r="J277" s="22"/>
       <c r="K277"/>
       <c r="L277"/>
       <c r="M277"/>
@@ -6363,7 +6369,7 @@
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278"/>
-      <c r="B278" s="22"/>
+      <c r="B278" s="26"/>
       <c r="C278"/>
       <c r="D278"/>
       <c r="E278"/>
@@ -6371,7 +6377,7 @@
       <c r="G278"/>
       <c r="H278"/>
       <c r="I278"/>
-      <c r="J278" s="25"/>
+      <c r="J278" s="22"/>
       <c r="K278"/>
       <c r="L278"/>
       <c r="M278"/>
@@ -6386,7 +6392,7 @@
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279"/>
-      <c r="B279" s="22"/>
+      <c r="B279" s="26"/>
       <c r="C279"/>
       <c r="D279"/>
       <c r="E279"/>
@@ -6394,7 +6400,7 @@
       <c r="G279"/>
       <c r="H279"/>
       <c r="I279"/>
-      <c r="J279" s="25"/>
+      <c r="J279" s="22"/>
       <c r="K279"/>
       <c r="L279"/>
       <c r="M279"/>
@@ -6411,10 +6417,6 @@
   <mergeCells count="1">
     <mergeCell ref="C1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A280:B1048576 A2 A3:B271">
-    <cfRule type="duplicateValues" dxfId="2" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
